--- a/src/main/webapp/WEB-INF/template/THAU_THO.xlsx
+++ b/src/main/webapp/WEB-INF/template/THAU_THO.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>NHÓM ĐỐI
  TÁC KHÁCH HÀNG</t>
@@ -64,9 +64,6 @@
     <t>hợp phố</t>
   </si>
   <si>
-    <t>123456…</t>
-  </si>
-  <si>
     <t>12 trưng nữ vương</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>NỘI DUNG</t>
   </si>
 </sst>
 </file>
@@ -195,22 +195,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -228,6 +219,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,120 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M5"/>
+  <dimension ref="A2:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <pageMargins left="0.15" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:M6"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -644,131 +528,254 @@
     <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="14"/>
+      <c r="N3" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11">
-        <v>44511</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="11">
-        <v>44530</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="11">
-        <v>44532</v>
-      </c>
-      <c r="K4" s="12">
-        <v>300000000</v>
-      </c>
-      <c r="L4" s="11">
-        <v>44532</v>
-      </c>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="6" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.1" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:N6"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8">
+        <v>44511</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7">
+        <v>349566239</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8">
+        <v>44530</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="8">
+        <v>44532</v>
+      </c>
+      <c r="K4" s="9">
+        <v>3000000</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="8">
+        <v>44532</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/webapp/WEB-INF/template/THAU_THO.xlsx
+++ b/src/main/webapp/WEB-INF/template/THAU_THO.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>NHÓM ĐỐI
  TÁC KHÁCH HÀNG</t>
@@ -46,9 +46,6 @@
     <t>SỐ ĐIỆN THOẠI</t>
   </si>
   <si>
-    <t>QUÀ TẶNG</t>
-  </si>
-  <si>
     <t>LOẠI QUÀ</t>
   </si>
   <si>
@@ -86,6 +83,12 @@
   </si>
   <si>
     <t>NỘI DUNG</t>
+  </si>
+  <si>
+    <t>NV PT</t>
+  </si>
+  <si>
+    <t>QUÀ TẶNG THEO ĐỢT</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -219,6 +222,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -515,112 +521,117 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N5"/>
+  <dimension ref="A2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12" t="s">
+      <c r="L3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="O3" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.1" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -629,153 +640,159 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N6"/>
+  <dimension ref="A2:O6"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K2" sqref="K2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="12"/>
+      <c r="I2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>15</v>
+      <c r="M3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8">
+      <c r="D4" s="7"/>
+      <c r="E4" s="8">
         <v>44511</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7">
+        <v>349566239</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7">
-        <v>349566239</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="8">
+        <v>44530</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8">
-        <v>44530</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>44532</v>
       </c>
-      <c r="K4" s="9">
+      <c r="L4" s="9">
         <v>3000000</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="8">
+        <v>44532</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="8">
-        <v>44532</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/webapp/WEB-INF/template/THAU_THO.xlsx
+++ b/src/main/webapp/WEB-INF/template/THAU_THO.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\DU_AN\phamarcy\src\main\webapp\WEB-INF\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>NHÓM ĐỐI
  TÁC KHÁCH HÀNG</t>
@@ -89,12 +84,15 @@
   </si>
   <si>
     <t>QUÀ TẶNG THEO ĐỢT</t>
+  </si>
+  <si>
+    <t>NGÀY NHẬP PHẦN MỀM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,7 +296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,7 +331,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,7 +522,7 @@
   <dimension ref="A2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -534,8 +532,8 @@
     <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
@@ -554,7 +552,7 @@
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>3</v>
@@ -631,7 +629,7 @@
     <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.1" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -793,6 +791,6 @@
     <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/webapp/WEB-INF/template/THAU_THO.xlsx
+++ b/src/main/webapp/WEB-INF/template/THAU_THO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\DU_AN\phamarcy\src\main\webapp\WEB-INF\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -92,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,9 +204,6 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -209,18 +211,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -235,6 +225,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -521,7 +526,7 @@
   </sheetPr>
   <dimension ref="A2:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
@@ -544,75 +549,75 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="13"/>
+      <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="11" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -629,7 +634,7 @@
     <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.1" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -640,8 +645,8 @@
   </sheetPr>
   <dimension ref="A2:O6"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -663,118 +668,118 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="13"/>
+      <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="4" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:15" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12">
         <v>44511</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="11">
         <v>349566239</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="12">
         <v>44530</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="12">
         <v>44532</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="13">
         <v>3000000</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="12">
         <v>44532</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -791,6 +796,6 @@
     <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/webapp/WEB-INF/template/THAU_THO.xlsx
+++ b/src/main/webapp/WEB-INF/template/THAU_THO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>NHÓM ĐỐI
  TÁC KHÁCH HÀNG</t>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>NGÀY NHẬP PHẦN MỀM</t>
+  </si>
+  <si>
+    <t>NGÀY GỌI 
+KH</t>
   </si>
 </sst>
 </file>
@@ -217,6 +221,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,21 +244,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,10 +528,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:O5"/>
+  <dimension ref="A2:P5"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -540,49 +544,53 @@
     <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="8"/>
+      <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -595,46 +603,48 @@
       <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="6" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:O2"/>
+  <mergeCells count="9">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.1" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -643,10 +653,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:O6"/>
+  <dimension ref="A2:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -659,49 +669,53 @@
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="8"/>
+      <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -714,88 +728,93 @@
       <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="3" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:16" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9">
         <v>44511</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>349566239</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
+        <v>44511</v>
+      </c>
+      <c r="J4" s="9">
         <v>44530</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="12">
+      <c r="L4" s="9">
         <v>44532</v>
       </c>
-      <c r="L4" s="13">
+      <c r="M4" s="10">
         <v>3000000</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="12">
+      <c r="O4" s="9">
         <v>44532</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="N2:O2"/>
+  <mergeCells count="9">
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/webapp/WEB-INF/template/THAU_THO.xlsx
+++ b/src/main/webapp/WEB-INF/template/THAU_THO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>NHÓM ĐỐI
  TÁC KHÁCH HÀNG</t>
@@ -73,9 +73,6 @@
     <t>NGÀY</t>
   </si>
   <si>
-    <t>ĐỊA CHỈ</t>
-  </si>
-  <si>
     <t>TÊN</t>
   </si>
   <si>
@@ -94,8 +91,7 @@
     <t>NGÀY NHẬP PHẦN MỀM</t>
   </si>
   <si>
-    <t>NGÀY GỌI 
-KH</t>
+    <t>ĐỊA CHỈ VÀ NGÀY GỌI KH</t>
   </si>
 </sst>
 </file>
@@ -205,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -235,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,10 +527,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P5"/>
+  <dimension ref="A2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -544,107 +543,101 @@
     <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:P2"/>
+  <mergeCells count="8">
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.1" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -653,10 +646,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P6"/>
+  <dimension ref="A2:O6"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -669,93 +662,88 @@
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="12" t="s">
+      <c r="I2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="13"/>
+      <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="N3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -777,44 +765,40 @@
         <v>11</v>
       </c>
       <c r="I4" s="9">
-        <v>44511</v>
-      </c>
-      <c r="J4" s="9">
         <v>44530</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="9">
+      <c r="K4" s="9">
         <v>44532</v>
       </c>
-      <c r="M4" s="10">
+      <c r="L4" s="10">
         <v>3000000</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="9">
+      <c r="N4" s="9">
         <v>44532</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="O2:P2"/>
+  <mergeCells count="8">
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>